--- a/data/trans_bre/P12A-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12A-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>2,87</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-2,91</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-7,78%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,88%</t>
+          <t>-4,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-12,91%</t>
+          <t>9,08%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19,47%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-12,93%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-8,53%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 2,67</t>
+          <t>-5,15; 3,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 5,68</t>
+          <t>-2,94; 5,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 3,7</t>
+          <t>-3,73; 3,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 1,29</t>
+          <t>-2,11; 7,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 21,79</t>
+          <t>-7,1; 1,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,24; 47,17</t>
+          <t>-6,53; 2,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,96; 31,66</t>
+          <t>-30,15; 31,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-29,71; 6,52</t>
+          <t>-18,81; 42,0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-22,58; 33,07</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-11,87; 63,06</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-28,66; 7,67</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-24,86; 11,44</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,61%</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>42,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>7,31%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18,49%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>50,76%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,95%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-15,3%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 9,75</t>
+          <t>0,68; 10,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 4,82</t>
+          <t>-2,72; 5,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 7,1</t>
+          <t>-2,21; 7,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 9,78</t>
+          <t>1,22; 11,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 91,93</t>
+          <t>-7,07; 9,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 41,68</t>
+          <t>-9,48; 5,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 56,65</t>
+          <t>3,91; 91,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,08; 68,17</t>
+          <t>-17,8; 46,09</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-13,25; 59,91</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6,77; 103,8</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-32,44; 67,91</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-42,89; 32,86</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>-5,44</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,98</t>
+          <t>-9,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-6,03</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>35,19%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-20,93%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-34,94%</t>
+          <t>43,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-25,21%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-36,7%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-28,97%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 12,19</t>
+          <t>-4,84; 12,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 3,95</t>
+          <t>-16,94; 3,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 0,01</t>
+          <t>-22,05; -0,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-27,45; 5,18</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-42,42; 190,17</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-57,34; 26,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-63,07; 2,89</t>
+          <t>-34,45; 191,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-59,5; 19,93</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-63,71; -0,26</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-73,65; 45,41</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>3,41</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>-1,91</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>14,18%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-1,77%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-8,84%</t>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-0,2%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22,62%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-8,86%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-9,41%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 4,98</t>
+          <t>-0,77; 5,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 3,46</t>
+          <t>-2,67; 3,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 2,97</t>
+          <t>-3,08; 3,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 2,29</t>
+          <t>-0,91; 6,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 42,09</t>
+          <t>-6,08; 2,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 25,82</t>
+          <t>-5,81; 1,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,98; 21,47</t>
+          <t>-5,29; 43,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 12,34</t>
+          <t>-16,27; 24,37</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-18,02; 22,13</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-5,53; 49,26</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-25,99; 10,7</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-23,75; 9,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P12A-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12A-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,62</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-2,91</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-4,34%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>9,08%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,48%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>19,47%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-12,93%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-8,53%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.9982833016858511</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.196753259792516</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.3989954078820773</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.037087694359986</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-2.909186279587228</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-1.92137517671791</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.06955439644058981</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.08672362020623647</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.02962240220424152</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.2054946069156335</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.1292524252220899</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.08330377553914217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,15; 3,6</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,94; 5,13</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,73; 3,83</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,11; 7,74</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-7,1; 1,59</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-6,53; 2,37</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-30,15; 31,92</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-18,81; 42,0</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-22,58; 33,07</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-11,87; 63,06</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-28,66; 7,67</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-24,86; 11,44</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.329307565504039</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.094515611961726</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.804655221326973</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.825036189412932</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-7.103346440684702</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-6.503136850130418</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3173025779816128</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1982143024789945</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2329813359496181</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1122151060331276</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.2865614316745427</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.2483915754906267</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.566098744565132</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.110824476905819</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.849624057119146</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>8.104265188162328</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.594478205782708</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.377814150290113</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.2990948981523633</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.430588944154763</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.3219195413488666</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.6363771046700861</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.07670478422685077</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.1149342923273086</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,44</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,98</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-2,89</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>42,01%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>7,31%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>18,49%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>50,76%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>6,95%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-15,3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,68; 10,14</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 5,12</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,21; 7,44</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 11,85</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-7,07; 9,87</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-9,48; 5,12</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>3,91; 91,49</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-17,8; 46,09</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-13,25; 59,91</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>6,77; 103,8</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-32,44; 67,91</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-42,89; 32,86</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.820929441785364</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.056538212524702</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.531774939442158</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>7.010402482783606</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.293484788223753</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-3.018841437271247</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2771027993013013</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.07946523323534528</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1723285484342417</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.5140915489723958</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.06952481499585929</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.1595554347666621</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,53</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,44</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-9,73</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-6,03</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>43,12%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-25,21%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-36,7%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-28,97%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.446208743668882</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.637014751854919</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.357518451046837</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1.315177896265388</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-7.071319435180677</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-9.709783913946321</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.08454040019104357</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1733998931021768</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1416380453891793</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.07601826847277821</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.3244221819726301</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.4368118512102874</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,84; 12,33</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-16,94; 3,4</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-22,05; -0,16</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-27,45; 5,18</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-34,45; 191,83</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-59,5; 19,93</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-63,71; -0,26</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-73,65; 45,41</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.475375944311194</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.078944256572441</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.16018002100405</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.86246037069498</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>9.874090787139442</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>4.881689401254928</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.726053514307869</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.4595452408605124</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.5764912585015572</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.072412935417234</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.6791172478527712</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.3213171174779578</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,41</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-1,91</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-2,08</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>17,61%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,34%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-0,2%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>22,62%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-8,86%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-9,41%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>3.111430667187405</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.437359598493512</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-9.478704320253678</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-5.592445120285997</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.2840173081000841</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2175178677427218</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.3663250123960146</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.2725989651695134</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 5,03</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 3,24</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,08; 3,08</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,91; 6,78</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-6,08; 2,01</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-5,81; 1,74</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-5,29; 43,28</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-16,27; 24,37</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-18,02; 22,13</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-5,53; 49,26</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-25,99; 10,7</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-23,75; 9,02</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.655321952397438</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-15.18318168778554</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-21.4852391465676</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-27.40597520642947</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.5154363738936344</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5741523931859297</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.6327927805609274</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.7358588416068245</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.17371701474631</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.125621715298614</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-0.09014679228905709</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5.686558571859996</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.583152625021864</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2712848945339452</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.002671727870573453</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.5095828963577159</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.360653983118729</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.4610538610484105</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.04358915431260102</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.562368058432416</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-1.911905458203691</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-2.072715314776014</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.09921693168633748</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.03201814439578621</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.002815309181719542</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2371856683725629</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.08861578392671592</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.09394951520922734</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.7105803117701</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.407519757076219</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.092903520910772</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.6748817259746431</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-6.084852529495699</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-5.791366264327903</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1163212097626461</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1538120971913664</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1806612790966677</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.04303455960134512</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.2598626757402397</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.241602997595627</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.292425627954298</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.299042247703867</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.938166651786691</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.008565081234227</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.014424748546793</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.795688119219819</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3555015704297501</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2586211313996344</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2180132304332137</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.5247075417615293</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.1070028454019956</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.0883843198686962</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
